--- a/data_output/prism_passive/all_passive_out_elong_SEE_Fuku_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_SEE_Fuku_trial_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>36.36706510404872</v>
+        <v>36.367065100942568</v>
       </c>
       <c r="C2">
-        <v>27.672406729133058</v>
+        <v>27.672406746933063</v>
       </c>
       <c r="D2">
-        <v>25.980508787450219</v>
+        <v>25.980508794843047</v>
       </c>
       <c r="E2">
-        <v>24.633856915363651</v>
+        <v>24.633856905748644</v>
       </c>
       <c r="F2">
-        <v>20.186183639497358</v>
+        <v>20.186183639323303</v>
       </c>
       <c r="G2">
-        <v>33.530971221432594</v>
+        <v>33.530971242226144</v>
       </c>
       <c r="H2">
-        <v>18.186752799856265</v>
+        <v>18.186752831713363</v>
       </c>
       <c r="I2">
-        <v>26.500235448209139</v>
+        <v>26.500235444539044</v>
       </c>
       <c r="J2">
-        <v>28.483911958904628</v>
+        <v>28.483911955124427</v>
       </c>
       <c r="K2">
-        <v>31.963140425146207</v>
+        <v>31.963140435104378</v>
       </c>
       <c r="L2">
-        <v>45.371409851336182</v>
+        <v>45.37140990673123</v>
       </c>
       <c r="M2">
-        <v>33.2383283232964</v>
+        <v>33.238328351722373</v>
       </c>
       <c r="N2">
-        <v>27.881884000000241</v>
+        <v>27.88188402186654</v>
       </c>
       <c r="O2">
-        <v>15.03980944293852</v>
+        <v>15.039809422393887</v>
       </c>
       <c r="P2">
-        <v>19.62633206245539</v>
+        <v>19.626332086420518</v>
       </c>
       <c r="Q2">
-        <v>42.176734292012725</v>
+        <v>42.176734299913846</v>
       </c>
       <c r="R2">
-        <v>26.188281136820535</v>
+        <v>26.188281108599256</v>
       </c>
       <c r="S2">
-        <v>17.237835892858811</v>
+        <v>17.237836053720571</v>
       </c>
       <c r="T2">
-        <v>13.536195717440251</v>
+        <v>13.536195710834477</v>
       </c>
       <c r="U2">
-        <v>25.569702681684362</v>
+        <v>25.569702695224009</v>
       </c>
       <c r="V2">
-        <v>25.258590459658592</v>
+        <v>25.258590461636231</v>
       </c>
       <c r="W2">
-        <v>34.993156365488517</v>
+        <v>34.993156466841128</v>
       </c>
       <c r="X2">
-        <v>29.801008606564494</v>
+        <v>29.801008599496072</v>
       </c>
       <c r="Y2">
-        <v>7.1734600049948085</v>
+        <v>7.1734600190205242</v>
       </c>
       <c r="Z2">
-        <v>16.238959787477995</v>
+        <v>16.238959807505751</v>
       </c>
       <c r="AA2">
-        <v>25.86788230536223</v>
+        <v>25.867882223339393</v>
       </c>
       <c r="AB2">
-        <v>24.605101554941086</v>
+        <v>24.605101605501886</v>
       </c>
       <c r="AC2">
-        <v>32.316340979394397</v>
+        <v>32.316341013742601</v>
       </c>
       <c r="AD2">
-        <v>17.633833984546243</v>
+        <v>17.633834029397235</v>
       </c>
       <c r="AE2">
-        <v>29.432002155039186</v>
+        <v>29.432002157175532</v>
       </c>
       <c r="AF2">
-        <v>20.499878898925203</v>
+        <v>20.499878930004627</v>
       </c>
       <c r="AG2">
-        <v>22.271532352649217</v>
+        <v>22.271532395077656</v>
       </c>
       <c r="AH2">
-        <v>17.238837881694167</v>
+        <v>17.238837904465413</v>
       </c>
       <c r="AI2">
-        <v>25.088747918067497</v>
+        <v>25.0887480901348</v>
       </c>
       <c r="AJ2">
-        <v>24.4406791827235</v>
+        <v>24.440679218438333</v>
       </c>
       <c r="AK2">
-        <v>31.22328086209194</v>
+        <v>31.223280882372819</v>
       </c>
       <c r="AL2">
-        <v>38.019296712104676</v>
+        <v>38.019296752164109</v>
       </c>
       <c r="AM2">
-        <v>18.210526515451306</v>
+        <v>18.210526618971528</v>
       </c>
       <c r="AN2">
-        <v>18.468506103353377</v>
+        <v>18.468506141711202</v>
       </c>
       <c r="AO2">
-        <v>13.208965216686806</v>
+        <v>13.208965094824748</v>
       </c>
       <c r="AP2">
-        <v>16.248648661223342</v>
+        <v>16.248648691065</v>
       </c>
       <c r="AQ2">
-        <v>30.214799491190547</v>
+        <v>30.21479956896917</v>
       </c>
       <c r="AR2">
-        <v>16.122481180264685</v>
+        <v>16.122481132629616</v>
       </c>
       <c r="AS2">
-        <v>19.356683794123057</v>
+        <v>19.356683872465965</v>
       </c>
       <c r="AT2">
-        <v>17.927780818408621</v>
+        <v>17.927780732216661</v>
       </c>
       <c r="AU2">
-        <v>16.827044518059949</v>
+        <v>16.827044578425102</v>
       </c>
       <c r="AV2">
-        <v>20.956410186062726</v>
+        <v>20.956410152095771</v>
       </c>
       <c r="AW2">
-        <v>23.350808767611568</v>
+        <v>23.350808873981862</v>
       </c>
       <c r="AX2">
-        <v>18.038960163821741</v>
+        <v>18.038960221664979</v>
       </c>
       <c r="AY2">
-        <v>8.9531165398203143</v>
+        <v>8.9531165816518978</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>33.899036846914782</v>
+        <v>33.899036990472666</v>
       </c>
       <c r="C3">
-        <v>32.253401616933957</v>
+        <v>32.253401626130994</v>
       </c>
       <c r="D3">
-        <v>13.24070750499078</v>
+        <v>13.240707585471625</v>
       </c>
       <c r="E3">
-        <v>18.047231301209194</v>
+        <v>18.047231317504838</v>
       </c>
       <c r="F3">
-        <v>22.616016809800669</v>
+        <v>22.616016829391469</v>
       </c>
       <c r="G3">
-        <v>20.411339680037656</v>
+        <v>20.411339696435277</v>
       </c>
       <c r="H3">
-        <v>32.358188371430799</v>
+        <v>32.358188361528221</v>
       </c>
       <c r="I3">
-        <v>25.998620301961068</v>
+        <v>25.998620315074504</v>
       </c>
       <c r="J3">
-        <v>23.331858627676183</v>
+        <v>23.331858673607485</v>
       </c>
       <c r="K3">
-        <v>-2.1752745178265513</v>
+        <v>-2.1752745123231989</v>
       </c>
       <c r="L3">
-        <v>21.926715462977995</v>
+        <v>21.926715488567595</v>
       </c>
       <c r="M3">
-        <v>33.384888434987829</v>
+        <v>33.385298702537114</v>
       </c>
       <c r="N3">
-        <v>23.738576531126228</v>
+        <v>23.738576534686445</v>
       </c>
       <c r="O3">
-        <v>28.876341282949227</v>
+        <v>28.876341285079377</v>
       </c>
       <c r="P3">
-        <v>18.264648637728669</v>
+        <v>18.264648676679087</v>
       </c>
       <c r="Q3">
-        <v>21.861148190034498</v>
+        <v>21.861148223772886</v>
       </c>
       <c r="R3">
-        <v>34.209238460803704</v>
+        <v>34.209238566352383</v>
       </c>
       <c r="S3">
-        <v>13.612878497667339</v>
+        <v>13.612878528214708</v>
       </c>
       <c r="T3">
-        <v>17.40758647787959</v>
+        <v>17.407586504359926</v>
       </c>
       <c r="U3">
-        <v>16.215949024716167</v>
+        <v>16.21594905325361</v>
       </c>
       <c r="V3">
-        <v>15.206274962244379</v>
+        <v>15.206274955357003</v>
       </c>
       <c r="W3">
-        <v>22.437441897494352</v>
+        <v>22.437441941305167</v>
       </c>
       <c r="X3">
-        <v>28.765954116906869</v>
+        <v>28.765954130809007</v>
       </c>
       <c r="Y3">
-        <v>3.9672638674484233</v>
+        <v>3.9672639110057162</v>
       </c>
       <c r="Z3">
-        <v>9.448637869362301</v>
+        <v>9.4486378887514206</v>
       </c>
       <c r="AA3">
-        <v>27.630616663494209</v>
+        <v>27.630616646957435</v>
       </c>
       <c r="AB3">
-        <v>24.740737243912577</v>
+        <v>24.740737289899812</v>
       </c>
       <c r="AC3">
-        <v>24.53791184759308</v>
+        <v>24.537911938050286</v>
       </c>
       <c r="AD3">
-        <v>22.417863796249037</v>
+        <v>22.417863917220643</v>
       </c>
       <c r="AE3">
-        <v>22.059216525918941</v>
+        <v>22.059216615438118</v>
       </c>
       <c r="AF3">
-        <v>27.549554838647339</v>
+        <v>27.549554900305054</v>
       </c>
       <c r="AG3">
-        <v>27.781705555401686</v>
+        <v>27.781705591643743</v>
       </c>
       <c r="AH3">
-        <v>31.775067566155599</v>
+        <v>31.775067595252324</v>
       </c>
       <c r="AI3">
-        <v>8.7505145199996264</v>
+        <v>8.7505155700310411</v>
       </c>
       <c r="AJ3">
-        <v>22.840788081331368</v>
+        <v>22.840788157282816</v>
       </c>
       <c r="AK3">
-        <v>36.5737722511127</v>
+        <v>36.573772408209038</v>
       </c>
       <c r="AL3">
-        <v>23.624993436003422</v>
+        <v>23.624993498473202</v>
       </c>
       <c r="AM3">
-        <v>17.814423941793621</v>
+        <v>17.814424024323046</v>
       </c>
       <c r="AN3">
-        <v>37.496488545721036</v>
+        <v>37.496488564590436</v>
       </c>
       <c r="AO3">
-        <v>19.427542477033569</v>
+        <v>19.427542655185277</v>
       </c>
       <c r="AP3">
-        <v>24.741144116232135</v>
+        <v>24.741144150966932</v>
       </c>
       <c r="AQ3">
-        <v>19.968878855867899</v>
+        <v>19.968878894504883</v>
       </c>
       <c r="AR3">
-        <v>13.588701321510882</v>
+        <v>13.588701274467837</v>
       </c>
       <c r="AS3">
-        <v>30.416541726119362</v>
+        <v>30.41654170953359</v>
       </c>
       <c r="AT3">
-        <v>11.020267700857801</v>
+        <v>11.020267773643184</v>
       </c>
       <c r="AU3">
-        <v>30.131172207306463</v>
+        <v>30.131172304251663</v>
       </c>
       <c r="AV3">
-        <v>24.74306087601974</v>
+        <v>24.743060968311909</v>
       </c>
       <c r="AW3">
-        <v>29.798226245164642</v>
+        <v>29.798227048815761</v>
       </c>
       <c r="AX3">
-        <v>26.275857086149074</v>
+        <v>26.275857280130253</v>
       </c>
       <c r="AY3">
-        <v>5.525742787402578</v>
+        <v>5.525742829047033</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_elong_SEE_Fuku_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_SEE_Fuku_trial_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>36.367065100942568</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>27.672406746933063</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>25.980508794843047</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>24.633856905748644</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>20.186183639323303</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>33.530971242226144</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>18.186752831713363</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>26.500235444539044</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>28.483911955124427</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>31.963140435104378</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>45.37140990673123</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>33.238328351722373</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>27.88188402186654</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>15.039809422393887</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>19.626332086420518</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>42.176734299913846</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>26.188281108599256</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>17.237836053720571</v>
+        <v>25.406870884379941</v>
       </c>
       <c r="T2">
         <v>13.536195710834477</v>
@@ -588,55 +477,55 @@
         <v>16.238959807505751</v>
       </c>
       <c r="AA2">
-        <v>25.867882223339393</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>24.605101605501886</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>32.316341013742601</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>17.633834029397235</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>29.432002157175532</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>20.499878930004627</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>22.271532395077656</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>17.238837904465413</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>25.0887480901348</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>24.440679218438333</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>31.223280882372819</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>38.019296752164109</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>18.210526618971528</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>18.468506141711202</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>13.208965094824748</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>16.248648691065</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>30.21479956896917</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>16.122481132629616</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>33.899036990472666</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>32.253401626130994</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>13.240707585471625</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>18.047231317504838</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>22.616016829391469</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>20.411339696435277</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>32.358188361528221</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>25.998620315074504</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>23.331858673607485</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>-2.1752745123231989</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>21.926715488567595</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>33.385298702537114</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>23.738576534686445</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>28.876341285079377</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>18.264648676679087</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>21.861148223772886</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>34.209238566352383</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>13.612878528214708</v>
@@ -743,55 +629,55 @@
         <v>9.4486378887514206</v>
       </c>
       <c r="AA3">
-        <v>27.630616646957435</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>24.740737289899812</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>24.537911938050286</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>22.417863917220643</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>22.059216615438118</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>27.549554900305054</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>27.781705591643743</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>31.775067595252324</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>8.7505155700310411</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>22.840788157282816</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>36.573772408209038</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>23.624993498473202</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>17.814424024323046</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>37.496488564590436</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>19.427542655185277</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>24.741144150966932</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>19.968878894504883</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>13.588701274467837</v>

--- a/data_output/prism_passive/all_passive_out_elong_SEE_Fuku_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_SEE_Fuku_trial_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -517,17 +512,8 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>36.36706510404872</v>
-      </c>
       <c r="C2">
-        <v>29.976379181068069</v>
-      </c>
-      <c r="D2">
-        <v>25.980508787450219</v>
-      </c>
-      <c r="E2">
-        <v>24.633856915363651</v>
+        <v>26.188281108599256</v>
       </c>
       <c r="F2">
         <v>20.186183639497358</v>
@@ -673,16 +659,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>33.899036846914782</v>
+        <v>23.27312537304482</v>
       </c>
       <c r="C3">
-        <v>32.253401616933957</v>
+        <v>34.209238566352383</v>
       </c>
       <c r="D3">
-        <v>13.24070750499078</v>
+        <v>35.843641919456275</v>
       </c>
       <c r="E3">
-        <v>18.047231301209194</v>
+        <v>19.785949458981804</v>
       </c>
       <c r="F3">
         <v>22.616016809800669</v>

--- a/data_output/prism_passive/all_passive_out_elong_SEE_Fuku_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_SEE_Fuku_trial_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>36.36706510404872</v>
-      </c>
-      <c r="C2">
-        <v>29.976379181068069</v>
+        <v>28.55068550296312</v>
       </c>
       <c r="D2">
-        <v>25.980508787450219</v>
-      </c>
-      <c r="E2">
-        <v>24.633856915363651</v>
+        <v>18.210526618971528</v>
       </c>
       <c r="F2">
         <v>20.186183639497358</v>
@@ -661,16 +650,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>33.899036846914782</v>
+        <v>23.738576534686445</v>
       </c>
       <c r="C3">
-        <v>32.253401616933957</v>
+        <v>23.27312537304482</v>
       </c>
       <c r="D3">
-        <v>13.24070750499078</v>
+        <v>17.814424024323046</v>
       </c>
       <c r="E3">
-        <v>12.82968553674641</v>
+        <v>35.843641919456275</v>
       </c>
       <c r="F3">
         <v>22.616016809800669</v>

--- a/data_output/prism_passive/all_passive_out_elong_SEE_Fuku_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_SEE_Fuku_trial_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,136 +513,142 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>36.367065100942568</v>
+      </c>
+      <c r="C2">
+        <v>29.976379250497075</v>
+      </c>
+      <c r="D2">
+        <v>25.980508794843047</v>
+      </c>
+      <c r="E2">
+        <v>24.633856905748644</v>
+      </c>
+      <c r="F2">
+        <v>20.186183639323303</v>
+      </c>
+      <c r="G2">
+        <v>29.484222925014706</v>
+      </c>
+      <c r="H2">
+        <v>18.186752831713363</v>
+      </c>
+      <c r="I2">
+        <v>22.247583011216591</v>
+      </c>
+      <c r="J2">
+        <v>28.483911955124427</v>
+      </c>
+      <c r="K2">
+        <v>31.963140435104378</v>
+      </c>
+      <c r="L2">
+        <v>42.384053446844007</v>
+      </c>
+      <c r="M2">
+        <v>26.547192630512427</v>
+      </c>
+      <c r="N2">
         <v>28.55068550296312</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>18.229439271281421</v>
+      </c>
+      <c r="Q2">
+        <v>42.176734299913846</v>
+      </c>
+      <c r="R2">
+        <v>26.188281108599256</v>
+      </c>
+      <c r="T2">
+        <v>16.325564436619914</v>
+      </c>
+      <c r="U2">
+        <v>25.569702695224009</v>
+      </c>
+      <c r="V2">
+        <v>21.939467263774475</v>
+      </c>
+      <c r="W2">
+        <v>34.993156466841128</v>
+      </c>
+      <c r="X2">
+        <v>29.801008599496072</v>
+      </c>
+      <c r="Y2">
+        <v>7.1734600190205242</v>
+      </c>
+      <c r="Z2">
+        <v>16.238959807505751</v>
+      </c>
+      <c r="AA2">
+        <v>25.867882223339393</v>
+      </c>
+      <c r="AB2">
+        <v>24.605101605501886</v>
+      </c>
+      <c r="AC2">
+        <v>32.316341013742601</v>
+      </c>
+      <c r="AD2">
+        <v>17.633834029397235</v>
+      </c>
+      <c r="AE2">
+        <v>29.432002157175532</v>
+      </c>
+      <c r="AF2">
+        <v>20.499878930004627</v>
+      </c>
+      <c r="AG2">
+        <v>22.271532395077656</v>
+      </c>
+      <c r="AH2">
+        <v>17.238837904465413</v>
+      </c>
+      <c r="AI2">
+        <v>25.0887480901348</v>
+      </c>
+      <c r="AJ2">
+        <v>24.440679218438333</v>
+      </c>
+      <c r="AK2">
+        <v>31.223280882372819</v>
+      </c>
+      <c r="AL2">
+        <v>38.019296752164109</v>
+      </c>
+      <c r="AM2">
         <v>18.210526618971528</v>
       </c>
-      <c r="F2">
-        <v>20.186183639497358</v>
-      </c>
-      <c r="G2">
-        <v>29.484222864048661</v>
-      </c>
-      <c r="H2">
-        <v>18.186752799856265</v>
-      </c>
-      <c r="I2">
-        <v>22.247583021527589</v>
-      </c>
-      <c r="J2">
-        <v>28.483911958904628</v>
-      </c>
-      <c r="K2">
-        <v>31.963140425146207</v>
-      </c>
-      <c r="L2">
-        <v>42.384053124963373</v>
-      </c>
-      <c r="M2">
-        <v>26.547192622454418</v>
-      </c>
-      <c r="N2">
-        <v>28.550685470357223</v>
-      </c>
-      <c r="P2">
-        <v>18.229439233129085</v>
-      </c>
-      <c r="Q2">
-        <v>42.176734292012725</v>
-      </c>
-      <c r="R2">
-        <v>26.188281136820535</v>
-      </c>
-      <c r="T2">
-        <v>16.325564443882001</v>
-      </c>
-      <c r="U2">
-        <v>25.569702681684362</v>
-      </c>
-      <c r="V2">
-        <v>21.939467255604484</v>
-      </c>
-      <c r="W2">
-        <v>34.993156365488517</v>
-      </c>
-      <c r="X2">
-        <v>29.801008606564494</v>
-      </c>
-      <c r="Y2">
-        <v>7.1734600049948085</v>
-      </c>
-      <c r="Z2">
-        <v>16.238959787477995</v>
-      </c>
-      <c r="AA2">
-        <v>25.86788230536223</v>
-      </c>
-      <c r="AB2">
-        <v>24.605101554941086</v>
-      </c>
-      <c r="AC2">
-        <v>32.316340979394397</v>
-      </c>
-      <c r="AD2">
-        <v>17.633833984546243</v>
-      </c>
-      <c r="AE2">
-        <v>29.432002155039186</v>
-      </c>
-      <c r="AF2">
-        <v>20.499878898925203</v>
-      </c>
-      <c r="AG2">
-        <v>22.271532352649217</v>
-      </c>
-      <c r="AH2">
-        <v>17.238837881694167</v>
-      </c>
-      <c r="AI2">
-        <v>25.088747918067497</v>
-      </c>
-      <c r="AJ2">
-        <v>24.4406791827235</v>
-      </c>
-      <c r="AK2">
-        <v>31.22328086209194</v>
-      </c>
-      <c r="AL2">
-        <v>38.019296712104676</v>
-      </c>
-      <c r="AM2">
-        <v>18.210526515451306</v>
-      </c>
       <c r="AO2">
-        <v>13.208965216686806</v>
+        <v>13.208965094824748</v>
       </c>
       <c r="AP2">
-        <v>14.106417561210378</v>
+        <v>14.106417600469285</v>
       </c>
       <c r="AR2">
-        <v>16.122481180264685</v>
+        <v>16.122481132629616</v>
       </c>
       <c r="AS2">
-        <v>19.356683794123057</v>
+        <v>19.356683872465965</v>
       </c>
       <c r="AT2">
-        <v>17.927780818408621</v>
+        <v>17.927780732216661</v>
       </c>
       <c r="AU2">
-        <v>22.896279148586018</v>
+        <v>22.89627928333465</v>
       </c>
       <c r="AV2">
-        <v>20.956410186062726</v>
+        <v>20.956410152095771</v>
       </c>
       <c r="AW2">
-        <v>23.350808767611568</v>
+        <v>23.350808873981862</v>
       </c>
       <c r="AX2">
-        <v>18.038960163821741</v>
+        <v>18.038960221664979</v>
       </c>
       <c r="AY2">
-        <v>8.9531165398203143</v>
+        <v>8.9531165816518978</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -650,154 +656,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>33.899036990472666</v>
+      </c>
+      <c r="C3">
+        <v>32.253401626130994</v>
+      </c>
+      <c r="D3">
+        <v>13.240707585471625</v>
+      </c>
+      <c r="E3">
+        <v>12.829685572705444</v>
+      </c>
+      <c r="F3">
+        <v>22.616016829391469</v>
+      </c>
+      <c r="G3">
+        <v>20.411339696435277</v>
+      </c>
+      <c r="H3">
+        <v>32.358188361528221</v>
+      </c>
+      <c r="I3">
+        <v>25.998620315074504</v>
+      </c>
+      <c r="J3">
+        <v>23.331858673607485</v>
+      </c>
+      <c r="K3">
+        <v>0.99115388074488919</v>
+      </c>
+      <c r="L3">
+        <v>21.926715488567595</v>
+      </c>
+      <c r="M3">
+        <v>36.520849417091085</v>
+      </c>
+      <c r="N3">
         <v>23.738576534686445</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>23.27312537304482</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>18.264648676679087</v>
+      </c>
+      <c r="Q3">
+        <v>21.861148223772886</v>
+      </c>
+      <c r="R3">
+        <v>34.209238566352383</v>
+      </c>
+      <c r="S3">
+        <v>13.612878528214708</v>
+      </c>
+      <c r="T3">
+        <v>17.407586504359926</v>
+      </c>
+      <c r="U3">
+        <v>16.21594905325361</v>
+      </c>
+      <c r="V3">
+        <v>13.398059303850516</v>
+      </c>
+      <c r="W3">
+        <v>22.450421995671888</v>
+      </c>
+      <c r="X3">
+        <v>28.765954130809007</v>
+      </c>
+      <c r="Y3">
+        <v>3.9672639110057162</v>
+      </c>
+      <c r="Z3">
+        <v>9.4486378887514206</v>
+      </c>
+      <c r="AA3">
+        <v>27.630616646957435</v>
+      </c>
+      <c r="AB3">
+        <v>24.740737289899812</v>
+      </c>
+      <c r="AC3">
+        <v>24.537911938050286</v>
+      </c>
+      <c r="AD3">
+        <v>22.417863917220643</v>
+      </c>
+      <c r="AE3">
+        <v>22.059216615438118</v>
+      </c>
+      <c r="AF3">
+        <v>27.549554900305054</v>
+      </c>
+      <c r="AG3">
+        <v>27.781705591643743</v>
+      </c>
+      <c r="AH3">
+        <v>31.775067595252324</v>
+      </c>
+      <c r="AI3">
+        <v>31.05333890868053</v>
+      </c>
+      <c r="AJ3">
+        <v>22.840788157282816</v>
+      </c>
+      <c r="AK3">
+        <v>36.573772408209038</v>
+      </c>
+      <c r="AL3">
+        <v>23.624993498473202</v>
+      </c>
+      <c r="AM3">
         <v>17.814424024323046</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>35.843641919456275</v>
       </c>
-      <c r="F3">
-        <v>22.616016809800669</v>
-      </c>
-      <c r="G3">
-        <v>20.411339680037656</v>
-      </c>
-      <c r="H3">
-        <v>32.358188371430799</v>
-      </c>
-      <c r="I3">
-        <v>25.998620301961068</v>
-      </c>
-      <c r="J3">
-        <v>23.331858627676183</v>
-      </c>
-      <c r="K3">
-        <v>0.99115387838543256</v>
-      </c>
-      <c r="L3">
-        <v>21.926715462977995</v>
-      </c>
-      <c r="M3">
-        <v>36.520673806902437</v>
-      </c>
-      <c r="N3">
-        <v>23.738576531126228</v>
-      </c>
-      <c r="O3">
-        <v>23.273125371260619</v>
-      </c>
-      <c r="P3">
-        <v>18.264648637728669</v>
-      </c>
-      <c r="Q3">
-        <v>21.861148190034498</v>
-      </c>
-      <c r="R3">
-        <v>34.209238460803704</v>
-      </c>
-      <c r="S3">
-        <v>13.612878497667339</v>
-      </c>
-      <c r="T3">
-        <v>17.40758647787959</v>
-      </c>
-      <c r="U3">
-        <v>16.215949024716167</v>
-      </c>
-      <c r="V3">
-        <v>13.398059441789599</v>
-      </c>
-      <c r="W3">
-        <v>22.450421991146868</v>
-      </c>
-      <c r="X3">
-        <v>28.765954116906869</v>
-      </c>
-      <c r="Y3">
-        <v>3.9672638674484233</v>
-      </c>
-      <c r="Z3">
-        <v>9.448637869362301</v>
-      </c>
-      <c r="AA3">
-        <v>27.630616663494209</v>
-      </c>
-      <c r="AB3">
-        <v>24.740737243912577</v>
-      </c>
-      <c r="AC3">
-        <v>24.53791184759308</v>
-      </c>
-      <c r="AD3">
-        <v>22.417863796249037</v>
-      </c>
-      <c r="AE3">
-        <v>22.059216525918941</v>
-      </c>
-      <c r="AF3">
-        <v>27.549554838647339</v>
-      </c>
-      <c r="AG3">
-        <v>27.781705555401686</v>
-      </c>
-      <c r="AH3">
-        <v>31.775067566155599</v>
-      </c>
-      <c r="AI3">
-        <v>31.053338697206925</v>
-      </c>
-      <c r="AJ3">
-        <v>22.840788081331368</v>
-      </c>
-      <c r="AK3">
-        <v>36.5737722511127</v>
-      </c>
-      <c r="AL3">
-        <v>23.624993436003422</v>
-      </c>
-      <c r="AM3">
-        <v>17.814423941793621</v>
-      </c>
-      <c r="AN3">
-        <v>35.843641905619506</v>
-      </c>
       <c r="AO3">
-        <v>19.427542477033569</v>
+        <v>19.427542655185277</v>
       </c>
       <c r="AP3">
-        <v>24.741144116232135</v>
+        <v>24.741144150966932</v>
       </c>
       <c r="AQ3">
-        <v>19.785949433202063</v>
+        <v>19.785949458981804</v>
       </c>
       <c r="AR3">
-        <v>13.588701321510882</v>
+        <v>13.588701274467837</v>
       </c>
       <c r="AS3">
-        <v>30.416541726119362</v>
+        <v>30.41654170953359</v>
       </c>
       <c r="AT3">
-        <v>11.020267700857801</v>
+        <v>11.020267773643184</v>
       </c>
       <c r="AU3">
-        <v>29.247103348174846</v>
+        <v>29.247103615941285</v>
       </c>
       <c r="AV3">
-        <v>24.74306087601974</v>
+        <v>24.743060968311909</v>
       </c>
       <c r="AW3">
-        <v>29.798226245164642</v>
+        <v>29.798227048815761</v>
       </c>
       <c r="AX3">
-        <v>26.275857086149074</v>
+        <v>26.275857280130253</v>
       </c>
       <c r="AY3">
-        <v>5.525742787402578</v>
+        <v>5.525742829047033</v>
       </c>
     </row>
   </sheetData>
